--- a/src/analises/result/excel/mefs_aleatorias/resultBreadthAlltrans.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/resultBreadthAlltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{26191AAB-7B2F-0844-8779-2CFF1D75DB4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D53C6A53-A435-F745-90FA-B967301DD5D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12900" yWindow="460" windowWidth="25500" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1075,15 +1075,15 @@
       </c>
       <c r="M2">
         <f>SUM(C591:C689)/M13</f>
-        <v>8.2323232323232318</v>
+        <v>8.0505050505050502</v>
       </c>
       <c r="N2">
         <f t="shared" ref="N2:T2" si="0">SUM(D591:D689)/N13</f>
-        <v>35.949494949494948</v>
+        <v>35.151515151515149</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>27.717171717171716</v>
+        <v>27.1010101010101</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
@@ -1095,15 +1095,15 @@
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>3.3770446164385519</v>
+        <v>3.3772432113341169</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>0.76673589682162779</v>
+        <v>0.7677322004331596</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>0.7030630985176427</v>
+        <v>0.70487377381316618</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1142,15 +1142,15 @@
       </c>
       <c r="M3">
         <f>SUM(C690:C787)/M14</f>
-        <v>13.73469387755102</v>
+        <v>13.663265306122449</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:T3" si="1">SUM(D690:D787)/N14</f>
-        <v>65.41836734693878</v>
+        <v>65.061224489795919</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>51.683673469387756</v>
+        <v>51.397959183673471</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
@@ -1162,15 +1162,15 @@
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
-        <v>3.7687097966059508</v>
+        <v>3.7681304439857821</v>
       </c>
       <c r="S3">
         <f t="shared" si="1"/>
-        <v>0.90438987744520094</v>
+        <v>0.90191642930291083</v>
       </c>
       <c r="T3">
         <f t="shared" si="1"/>
-        <v>0.93006060566084436</v>
+        <v>0.92599494343191668</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -1209,15 +1209,15 @@
       </c>
       <c r="M4">
         <f>SUM(C788:C883)/M15</f>
-        <v>19.5</v>
+        <v>19.458333333333332</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:T4" si="2">SUM(D788:D883)/N15</f>
-        <v>100.48958333333333</v>
+        <v>100.30208333333333</v>
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
-        <v>80.989583333333329</v>
+        <v>80.84375</v>
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
@@ -1229,15 +1229,15 @@
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>4.1611371309157716</v>
+        <v>4.162303645501404</v>
       </c>
       <c r="S4">
         <f t="shared" si="2"/>
-        <v>1.0666712202523858</v>
+        <v>1.066949541385892</v>
       </c>
       <c r="T4">
         <f t="shared" si="2"/>
-        <v>1.2631871317764938</v>
+        <v>1.2637314136505937</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1276,15 +1276,15 @@
       </c>
       <c r="M5">
         <f>SUM(C2:C98)/M16</f>
-        <v>25.412371134020617</v>
+        <v>25.381443298969071</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5:T5" si="3">SUM(D2:D98)/N16</f>
-        <v>135.43298969072166</v>
+        <v>135.23711340206185</v>
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>110.02061855670104</v>
+        <v>109.85567010309278</v>
       </c>
       <c r="P5">
         <f t="shared" si="3"/>
@@ -1296,15 +1296,15 @@
       </c>
       <c r="R5">
         <f t="shared" si="3"/>
-        <v>4.3298289253801663</v>
+        <v>4.3288291449092959</v>
       </c>
       <c r="S5">
         <f t="shared" si="3"/>
-        <v>1.1630392607747073</v>
+        <v>1.160588658557216</v>
       </c>
       <c r="T5">
         <f t="shared" si="3"/>
-        <v>1.4826629030996916</v>
+        <v>1.4766209871160449</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -1343,15 +1343,15 @@
       </c>
       <c r="M6">
         <f>SUM(C99:C197)/M17</f>
-        <v>29.838383838383837</v>
+        <v>29.767676767676768</v>
       </c>
       <c r="N6">
         <f t="shared" ref="N6:T6" si="4">SUM(D99:D197)/N17</f>
-        <v>171.09090909090909</v>
+        <v>170.67676767676767</v>
       </c>
       <c r="O6">
         <f t="shared" si="4"/>
-        <v>141.25252525252526</v>
+        <v>140.90909090909091</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
@@ -1363,15 +1363,15 @@
       </c>
       <c r="R6">
         <f t="shared" si="4"/>
-        <v>4.7433795245070893</v>
+        <v>4.7429762846854722</v>
       </c>
       <c r="S6">
         <f t="shared" si="4"/>
-        <v>1.3717702384226911</v>
+        <v>1.3725905451680604</v>
       </c>
       <c r="T6">
         <f t="shared" si="4"/>
-        <v>2.0713742739955276</v>
+        <v>2.0742540535244456</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1410,15 +1410,15 @@
       </c>
       <c r="M7">
         <f>SUM(C198:C296)/M18</f>
-        <v>35.505050505050505</v>
+        <v>35.393939393939391</v>
       </c>
       <c r="N7">
         <f t="shared" ref="N7:T7" si="5">SUM(D198:D296)/N18</f>
-        <v>210.26262626262627</v>
+        <v>209.54545454545453</v>
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>174.75757575757575</v>
+        <v>174.15151515151516</v>
       </c>
       <c r="P7">
         <f t="shared" si="5"/>
@@ -1430,15 +1430,15 @@
       </c>
       <c r="R7">
         <f t="shared" si="5"/>
-        <v>4.9297355116574515</v>
+        <v>4.9273584230055825</v>
       </c>
       <c r="S7">
         <f t="shared" si="5"/>
-        <v>1.4602441359765079</v>
+        <v>1.4601920305610359</v>
       </c>
       <c r="T7">
         <f t="shared" si="5"/>
-        <v>2.3759268697924045</v>
+        <v>2.3759070083223577</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -1477,19 +1477,19 @@
       </c>
       <c r="M8">
         <f>SUM(C297:C396)/M19</f>
-        <v>41.32</v>
+        <v>41.25</v>
       </c>
       <c r="N8">
         <f t="shared" ref="N8:T8" si="6">SUM(D297:D396)/N19</f>
-        <v>252.12</v>
+        <v>251.66</v>
       </c>
       <c r="O8">
         <f t="shared" si="6"/>
-        <v>210.8</v>
+        <v>210.41</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
-        <v>2.27</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
@@ -1497,15 +1497,15 @@
       </c>
       <c r="R8">
         <f t="shared" si="6"/>
-        <v>5.1034099059255951</v>
+        <v>5.1031192165951555</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>1.5324558464320515</v>
+        <v>1.5339767739394268</v>
       </c>
       <c r="T8">
         <f t="shared" si="6"/>
-        <v>2.5594885893393795</v>
+        <v>2.5653091477278793</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -1544,15 +1544,15 @@
       </c>
       <c r="M9">
         <f>SUM(C397:C493)/M20</f>
-        <v>46.804123711340203</v>
+        <v>46.711340206185568</v>
       </c>
       <c r="N9">
         <f t="shared" ref="N9:T9" si="7">SUM(D397:D493)/N20</f>
-        <v>295.90721649484539</v>
+        <v>295.2474226804124</v>
       </c>
       <c r="O9">
         <f t="shared" si="7"/>
-        <v>249.10309278350516</v>
+        <v>248.53608247422682</v>
       </c>
       <c r="P9">
         <f t="shared" si="7"/>
@@ -1564,15 +1564,15 @@
       </c>
       <c r="R9">
         <f t="shared" si="7"/>
-        <v>5.3212302261106723</v>
+        <v>5.3199475730122847</v>
       </c>
       <c r="S9">
         <f t="shared" si="7"/>
-        <v>1.6476098525780405</v>
+        <v>1.6459105358453014</v>
       </c>
       <c r="T9">
         <f t="shared" si="7"/>
-        <v>3.0212667695041482</v>
+        <v>3.014202671208158</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -1611,15 +1611,15 @@
       </c>
       <c r="M10">
         <f>SUM(C494:C590)/M21</f>
-        <v>52.793814432989691</v>
+        <v>52.608247422680414</v>
       </c>
       <c r="N10">
         <f t="shared" ref="N10:T10" si="8">SUM(D494:D590)/N21</f>
-        <v>344.60824742268039</v>
+        <v>343.30927835051546</v>
       </c>
       <c r="O10">
         <f t="shared" si="8"/>
-        <v>291.81443298969072</v>
+        <v>290.70103092783506</v>
       </c>
       <c r="P10">
         <f t="shared" si="8"/>
@@ -1631,15 +1631,15 @@
       </c>
       <c r="R10">
         <f t="shared" si="8"/>
-        <v>5.5314001838273592</v>
+        <v>5.5296928377916315</v>
       </c>
       <c r="S10">
         <f t="shared" si="8"/>
-        <v>1.788056548267515</v>
+        <v>1.7880319788479211</v>
       </c>
       <c r="T10">
         <f t="shared" si="8"/>
-        <v>3.5380670925037045</v>
+        <v>3.5366825338294592</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -3955,13 +3955,13 @@
         <v>75</v>
       </c>
       <c r="C73">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E73">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -3970,13 +3970,13 @@
         <v>7</v>
       </c>
       <c r="H73">
-        <v>4.7037037037036997</v>
+        <v>4.6153846153846096</v>
       </c>
       <c r="I73">
-        <v>1.65981497613009</v>
+        <v>1.6267002938936901</v>
       </c>
       <c r="J73">
-        <v>2.7549857549857499</v>
+        <v>2.6461538461538399</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -4243,13 +4243,13 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D82">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E82">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F82">
         <v>2</v>
@@ -4258,13 +4258,13 @@
         <v>7</v>
       </c>
       <c r="H82">
-        <v>4.5217391304347796</v>
+        <v>4.4090909090909003</v>
       </c>
       <c r="I82">
-        <v>1.2745610730183701</v>
+        <v>1.1815684051733499</v>
       </c>
       <c r="J82">
-        <v>1.62450592885375</v>
+        <v>1.3961038961038901</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -4659,13 +4659,13 @@
         <v>96</v>
       </c>
       <c r="C95">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D95">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E95">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F95">
         <v>2</v>
@@ -4674,13 +4674,13 @@
         <v>6</v>
       </c>
       <c r="H95">
-        <v>4.7037037037036997</v>
+        <v>4.8076923076923004</v>
       </c>
       <c r="I95">
-        <v>1.1706281947614099</v>
+        <v>1.05902712974619</v>
       </c>
       <c r="J95">
-        <v>1.37037037037037</v>
+        <v>1.12153846153846</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -4947,13 +4947,13 @@
         <v>13</v>
       </c>
       <c r="C104">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D104">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E104">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -4962,13 +4962,13 @@
         <v>6</v>
       </c>
       <c r="H104">
-        <v>4.6060606060606002</v>
+        <v>4.625</v>
       </c>
       <c r="I104">
-        <v>1.1709876691119001</v>
+        <v>1.18457832432119</v>
       </c>
       <c r="J104">
-        <v>1.37121212121212</v>
+        <v>1.4032258064516101</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -5427,13 +5427,13 @@
         <v>27</v>
       </c>
       <c r="C119">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D119">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E119">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -5442,13 +5442,13 @@
         <v>8</v>
       </c>
       <c r="H119">
-        <v>5.2903225806451601</v>
+        <v>5.3</v>
       </c>
       <c r="I119">
-        <v>1.9007638532459601</v>
+        <v>1.9324809853192999</v>
       </c>
       <c r="J119">
-        <v>3.6129032258064502</v>
+        <v>3.7344827586206799</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -6003,13 +6003,13 @@
         <v>43</v>
       </c>
       <c r="C137">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D137">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E137">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F137">
         <v>3</v>
@@ -6018,13 +6018,13 @@
         <v>8</v>
       </c>
       <c r="H137">
-        <v>4.5925925925925899</v>
+        <v>4.5769230769230704</v>
       </c>
       <c r="I137">
-        <v>1.71552322718753</v>
+        <v>1.7475257233718</v>
       </c>
       <c r="J137">
-        <v>2.94301994301994</v>
+        <v>3.0538461538461501</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -6195,13 +6195,13 @@
         <v>49</v>
       </c>
       <c r="C143">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D143">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E143">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F143">
         <v>2</v>
@@ -6210,13 +6210,13 @@
         <v>6</v>
       </c>
       <c r="H143">
-        <v>4.6071428571428497</v>
+        <v>4.5925925925925899</v>
       </c>
       <c r="I143">
-        <v>1.1968874978625501</v>
+        <v>1.2171612389003601</v>
       </c>
       <c r="J143">
-        <v>1.4325396825396799</v>
+        <v>1.4814814814814801</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -7283,13 +7283,13 @@
         <v>8</v>
       </c>
       <c r="C177">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D177">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E177">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F177">
         <v>2</v>
@@ -7298,13 +7298,13 @@
         <v>7</v>
       </c>
       <c r="H177">
-        <v>4.6785714285714199</v>
+        <v>4.6666666666666599</v>
       </c>
       <c r="I177">
-        <v>1.41561585678045</v>
+        <v>1.44115338424578</v>
       </c>
       <c r="J177">
-        <v>2.00396825396825</v>
+        <v>2.07692307692307</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
@@ -7571,13 +7571,13 @@
         <v>88</v>
       </c>
       <c r="C186">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D186">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E186">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F186">
         <v>3</v>
@@ -7586,13 +7586,13 @@
         <v>6</v>
       </c>
       <c r="H186">
-        <v>4.38709677419354</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="I186">
-        <v>0.95489683054728303</v>
+        <v>0.93526073566581502</v>
       </c>
       <c r="J186">
-        <v>0.91182795698924801</v>
+        <v>0.87471264367816104</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
@@ -7859,13 +7859,13 @@
         <v>96</v>
       </c>
       <c r="C195">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D195">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E195">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F195">
         <v>2</v>
@@ -7874,13 +7874,13 @@
         <v>7</v>
       </c>
       <c r="H195">
-        <v>5.1111111111111098</v>
+        <v>5.0384615384615303</v>
       </c>
       <c r="I195">
-        <v>1.45002210416396</v>
+        <v>1.42774701486696</v>
       </c>
       <c r="J195">
-        <v>2.1025641025641</v>
+        <v>2.0384615384615299</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
@@ -8467,13 +8467,13 @@
         <v>24</v>
       </c>
       <c r="C214">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D214">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E214">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F214">
         <v>2</v>
@@ -8482,13 +8482,13 @@
         <v>5</v>
       </c>
       <c r="H214">
-        <v>4.2666666666666604</v>
+        <v>4.2758620689655098</v>
       </c>
       <c r="I214">
-        <v>0.78491525276490104</v>
+        <v>0.79716245539762198</v>
       </c>
       <c r="J214">
-        <v>0.616091954022988</v>
+        <v>0.63546798029556595</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
@@ -8595,13 +8595,13 @@
         <v>28</v>
       </c>
       <c r="C218">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D218">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E218">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F218">
         <v>3</v>
@@ -8610,13 +8610,13 @@
         <v>8</v>
       </c>
       <c r="H218">
-        <v>4.9696969696969697</v>
+        <v>5</v>
       </c>
       <c r="I218">
-        <v>1.5100672270806399</v>
+        <v>1.52400152400228</v>
       </c>
       <c r="J218">
-        <v>2.2803030303030298</v>
+        <v>2.32258064516129</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
@@ -9011,13 +9011,13 @@
         <v>4</v>
       </c>
       <c r="C231">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D231">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E231">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F231">
         <v>2</v>
@@ -9026,13 +9026,13 @@
         <v>8</v>
       </c>
       <c r="H231">
-        <v>5.4444444444444402</v>
+        <v>5.3714285714285701</v>
       </c>
       <c r="I231">
-        <v>1.68089167568788</v>
+        <v>1.64648849669467</v>
       </c>
       <c r="J231">
-        <v>2.8253968253968198</v>
+        <v>2.71092436974789</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
@@ -9171,13 +9171,13 @@
         <v>44</v>
       </c>
       <c r="C236">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D236">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E236">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F236">
         <v>2</v>
@@ -9186,13 +9186,13 @@
         <v>6</v>
       </c>
       <c r="H236">
-        <v>4.7435897435897401</v>
+        <v>4.7368421052631504</v>
       </c>
       <c r="I236">
-        <v>0.96567262399539</v>
+        <v>0.97770305905870303</v>
       </c>
       <c r="J236">
-        <v>0.93252361673414297</v>
+        <v>0.95590327169274503</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
@@ -9203,13 +9203,13 @@
         <v>45</v>
       </c>
       <c r="C237">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D237">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E237">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F237">
         <v>2</v>
@@ -9218,13 +9218,13 @@
         <v>8</v>
       </c>
       <c r="H237">
-        <v>5.2162162162162096</v>
+        <v>5.2222222222222197</v>
       </c>
       <c r="I237">
-        <v>1.88760776197362</v>
+        <v>1.91402509479161</v>
       </c>
       <c r="J237">
-        <v>3.5630630630630602</v>
+        <v>3.6634920634920598</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
@@ -9331,13 +9331,13 @@
         <v>49</v>
       </c>
       <c r="C241">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D241">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E241">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F241">
         <v>3</v>
@@ -9346,13 +9346,13 @@
         <v>7</v>
       </c>
       <c r="H241">
-        <v>4.6875</v>
+        <v>4.6774193548387002</v>
       </c>
       <c r="I241">
-        <v>1.55413081194768</v>
+        <v>1.5787568268354499</v>
       </c>
       <c r="J241">
-        <v>2.4153225806451601</v>
+        <v>2.4924731182795599</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
@@ -10259,13 +10259,13 @@
         <v>75</v>
       </c>
       <c r="C270">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D270">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E270">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F270">
         <v>3</v>
@@ -10274,13 +10274,13 @@
         <v>6</v>
       </c>
       <c r="H270">
-        <v>4.3333333333333304</v>
+        <v>4.2857142857142803</v>
       </c>
       <c r="I270">
-        <v>1.0419761445034501</v>
+        <v>1.0166678146662</v>
       </c>
       <c r="J270">
-        <v>1.0857142857142801</v>
+        <v>1.03361344537815</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
@@ -10294,10 +10294,10 @@
         <v>36</v>
       </c>
       <c r="D271">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E271">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F271">
         <v>3</v>
@@ -10306,13 +10306,13 @@
         <v>5</v>
       </c>
       <c r="H271">
-        <v>4.1944444444444402</v>
+        <v>4.2222222222222197</v>
       </c>
       <c r="I271">
-        <v>0.70990721504169396</v>
+        <v>0.721550359042888</v>
       </c>
       <c r="J271">
-        <v>0.50396825396825395</v>
+        <v>0.52063492063492001</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
@@ -10547,13 +10547,13 @@
         <v>83</v>
       </c>
       <c r="C279">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D279">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E279">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F279">
         <v>2</v>
@@ -10562,13 +10562,13 @@
         <v>7</v>
       </c>
       <c r="H279">
-        <v>4.5405405405405403</v>
+        <v>4.5</v>
       </c>
       <c r="I279">
-        <v>1.2822418430795901</v>
+        <v>1.2761549390929801</v>
       </c>
       <c r="J279">
-        <v>1.64414414414414</v>
+        <v>1.6285714285714199</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
@@ -10611,13 +10611,13 @@
         <v>85</v>
       </c>
       <c r="C281">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D281">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E281">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F281">
         <v>2</v>
@@ -10626,13 +10626,13 @@
         <v>7</v>
       </c>
       <c r="H281">
-        <v>4.8</v>
+        <v>4.73529411764705</v>
       </c>
       <c r="I281">
-        <v>1.3015827469119301</v>
+        <v>1.2627248921668099</v>
       </c>
       <c r="J281">
-        <v>1.69411764705882</v>
+        <v>1.5944741532976801</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
@@ -10835,13 +10835,13 @@
         <v>91</v>
       </c>
       <c r="C288">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D288">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E288">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F288">
         <v>3</v>
@@ -10850,13 +10850,13 @@
         <v>6</v>
       </c>
       <c r="H288">
-        <v>4.1351351351351298</v>
+        <v>4.0833333333333304</v>
       </c>
       <c r="I288">
-        <v>0.91779210191760796</v>
+        <v>0.90632696717496497</v>
       </c>
       <c r="J288">
-        <v>0.84234234234234195</v>
+        <v>0.82142857142857095</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
@@ -10899,13 +10899,13 @@
         <v>93</v>
       </c>
       <c r="C290">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D290">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E290">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F290">
         <v>2</v>
@@ -10914,13 +10914,13 @@
         <v>6</v>
       </c>
       <c r="H290">
-        <v>4.45</v>
+        <v>4.4358974358974299</v>
       </c>
       <c r="I290">
-        <v>1.06096231113127</v>
+        <v>1.07102685097973</v>
       </c>
       <c r="J290">
-        <v>1.1256410256410201</v>
+        <v>1.1470985155195601</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
@@ -11443,13 +11443,13 @@
         <v>18</v>
       </c>
       <c r="C307">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D307">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E307">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F307">
         <v>2</v>
@@ -11458,13 +11458,13 @@
         <v>11</v>
       </c>
       <c r="H307">
-        <v>6.5813953488372103</v>
+        <v>6.5952380952380896</v>
       </c>
       <c r="I307">
-        <v>2.7536344653111202</v>
+        <v>2.7854983685940602</v>
       </c>
       <c r="J307">
-        <v>7.5825027685492703</v>
+        <v>7.7590011614401799</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
@@ -11475,13 +11475,13 @@
         <v>19</v>
       </c>
       <c r="C308">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D308">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E308">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F308">
         <v>2</v>
@@ -11490,13 +11490,13 @@
         <v>8</v>
       </c>
       <c r="H308">
-        <v>5.75</v>
+        <v>5.7692307692307603</v>
       </c>
       <c r="I308">
-        <v>1.8362447744772099</v>
+        <v>1.8561638207751601</v>
       </c>
       <c r="J308">
-        <v>3.37179487179487</v>
+        <v>3.4453441295546501</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
@@ -11795,13 +11795,13 @@
         <v>28</v>
       </c>
       <c r="C318">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D318">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E318">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F318">
         <v>3</v>
@@ -11810,13 +11810,13 @@
         <v>8</v>
       </c>
       <c r="H318">
-        <v>5.15</v>
+        <v>5.1794871794871797</v>
       </c>
       <c r="I318">
-        <v>1.49443411809732</v>
+        <v>1.50213523239762</v>
       </c>
       <c r="J318">
-        <v>2.2333333333333298</v>
+        <v>2.2564102564102502</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
@@ -11955,13 +11955,13 @@
         <v>32</v>
       </c>
       <c r="C323">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D323">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E323">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F323">
         <v>2</v>
@@ -11970,13 +11970,13 @@
         <v>7</v>
       </c>
       <c r="H323">
-        <v>4.8409090909090899</v>
+        <v>4.81395348837209</v>
       </c>
       <c r="I323">
-        <v>1.4132789158085199</v>
+        <v>1.4185138761509399</v>
       </c>
       <c r="J323">
-        <v>1.9973572938689199</v>
+        <v>2.01218161683278</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
@@ -12054,10 +12054,10 @@
         <v>39</v>
       </c>
       <c r="D326">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E326">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F326">
         <v>2</v>
@@ -12066,13 +12066,13 @@
         <v>9</v>
       </c>
       <c r="H326">
-        <v>5.6410256410256396</v>
+        <v>5.6666666666666599</v>
       </c>
       <c r="I326">
-        <v>2.0453693462265199</v>
+        <v>2.0174675805564899</v>
       </c>
       <c r="J326">
-        <v>4.18353576248313</v>
+        <v>4.0701754385964897</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
@@ -12534,10 +12534,10 @@
         <v>39</v>
       </c>
       <c r="D341">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E341">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F341">
         <v>3</v>
@@ -12546,13 +12546,13 @@
         <v>8</v>
       </c>
       <c r="H341">
-        <v>5.5641025641025603</v>
+        <v>5.5384615384615303</v>
       </c>
       <c r="I341">
-        <v>1.7591096999824001</v>
+        <v>1.7895332212053401</v>
       </c>
       <c r="J341">
-        <v>3.0944669365721902</v>
+        <v>3.2024291497975699</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
@@ -12659,28 +12659,28 @@
         <v>52</v>
       </c>
       <c r="C345">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D345">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E345">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G345">
         <v>9</v>
       </c>
       <c r="H345">
-        <v>5.5609756097560901</v>
+        <v>5.4761904761904701</v>
       </c>
       <c r="I345">
-        <v>1.89800922663464</v>
+        <v>1.9535845133084899</v>
       </c>
       <c r="J345">
-        <v>3.60243902439024</v>
+        <v>3.8164924506387901</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
@@ -13043,13 +13043,13 @@
         <v>63</v>
       </c>
       <c r="C357">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D357">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E357">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F357">
         <v>2</v>
@@ -13058,13 +13058,13 @@
         <v>8</v>
       </c>
       <c r="H357">
-        <v>5.2093023255813904</v>
+        <v>5.1666666666666599</v>
       </c>
       <c r="I357">
-        <v>1.7802907672475401</v>
+        <v>1.7795130420052101</v>
       </c>
       <c r="J357">
-        <v>3.16943521594684</v>
+        <v>3.1666666666666599</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
@@ -13075,13 +13075,13 @@
         <v>64</v>
       </c>
       <c r="C358">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D358">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E358">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F358">
         <v>3</v>
@@ -13090,13 +13090,13 @@
         <v>6</v>
       </c>
       <c r="H358">
-        <v>4.7317073170731696</v>
+        <v>4.75</v>
       </c>
       <c r="I358">
-        <v>0.83738850732209202</v>
+        <v>0.83971912275963101</v>
       </c>
       <c r="J358">
-        <v>0.70121951219512102</v>
+        <v>0.70512820512820495</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
@@ -13491,13 +13491,13 @@
         <v>76</v>
       </c>
       <c r="C371">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D371">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E371">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F371">
         <v>2</v>
@@ -13506,13 +13506,13 @@
         <v>9</v>
       </c>
       <c r="H371">
-        <v>5.5384615384615303</v>
+        <v>5.5789473684210504</v>
       </c>
       <c r="I371">
-        <v>1.88966933679655</v>
+        <v>1.8978163689166601</v>
       </c>
       <c r="J371">
-        <v>3.57085020242915</v>
+        <v>3.6017069701280202</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
@@ -13555,13 +13555,13 @@
         <v>78</v>
       </c>
       <c r="C373">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D373">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E373">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F373">
         <v>2</v>
@@ -13570,13 +13570,13 @@
         <v>7</v>
       </c>
       <c r="H373">
-        <v>5.1388888888888804</v>
+        <v>5.1428571428571397</v>
       </c>
       <c r="I373">
-        <v>1.3554709835705001</v>
+        <v>1.37504774554231</v>
       </c>
       <c r="J373">
-        <v>1.8373015873015801</v>
+        <v>1.8907563025209999</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
@@ -14387,13 +14387,13 @@
         <v>100</v>
       </c>
       <c r="C399">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D399">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E399">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F399">
         <v>2</v>
@@ -14402,13 +14402,13 @@
         <v>9</v>
       </c>
       <c r="H399">
-        <v>5.3255813953488298</v>
+        <v>5.2380952380952301</v>
       </c>
       <c r="I399">
-        <v>1.89888350946095</v>
+        <v>1.8320922839884199</v>
       </c>
       <c r="J399">
-        <v>3.60575858250276</v>
+        <v>3.3565621370499401</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
@@ -14675,13 +14675,13 @@
         <v>19</v>
       </c>
       <c r="C408">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D408">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E408">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F408">
         <v>2</v>
@@ -14690,13 +14690,13 @@
         <v>8</v>
       </c>
       <c r="H408">
-        <v>5.31111111111111</v>
+        <v>5.2954545454545396</v>
       </c>
       <c r="I408">
-        <v>1.4273660138078501</v>
+        <v>1.4399538987217499</v>
       </c>
       <c r="J408">
-        <v>2.0373737373737302</v>
+        <v>2.0734672304439701</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
@@ -14867,13 +14867,13 @@
         <v>24</v>
       </c>
       <c r="C414">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D414">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E414">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F414">
         <v>3</v>
@@ -14882,13 +14882,13 @@
         <v>8</v>
       </c>
       <c r="H414">
-        <v>4.9387755102040796</v>
+        <v>4.9583333333333304</v>
       </c>
       <c r="I414">
-        <v>1.42021364685778</v>
+        <v>1.4285587638749599</v>
       </c>
       <c r="J414">
-        <v>2.0170068027210801</v>
+        <v>2.0407801418439702</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.2">
@@ -14920,7 +14920,7 @@
         <v>1.09135058495919</v>
       </c>
       <c r="J415">
-        <v>1.1910460992907701</v>
+        <v>1.1910460992907801</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.2">
@@ -14931,13 +14931,13 @@
         <v>26</v>
       </c>
       <c r="C416">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D416">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E416">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F416">
         <v>2</v>
@@ -14946,13 +14946,13 @@
         <v>9</v>
       </c>
       <c r="H416">
-        <v>5.4444444444444402</v>
+        <v>5.3636363636363598</v>
       </c>
       <c r="I416">
-        <v>1.6174552903130299</v>
+        <v>1.5415321446747501</v>
       </c>
       <c r="J416">
-        <v>2.6161616161616101</v>
+        <v>2.3763213530655398</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.2">
@@ -15507,13 +15507,13 @@
         <v>44</v>
       </c>
       <c r="C434">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D434">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E434">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F434">
         <v>2</v>
@@ -15522,13 +15522,13 @@
         <v>6</v>
       </c>
       <c r="H434">
-        <v>4.8510638297872299</v>
+        <v>4.8695652173913002</v>
       </c>
       <c r="I434">
-        <v>0.97754624941750501</v>
+        <v>0.97999309866445095</v>
       </c>
       <c r="J434">
-        <v>0.95559666975023105</v>
+        <v>0.96038647342995198</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.2">
@@ -15795,13 +15795,13 @@
         <v>52</v>
       </c>
       <c r="C443">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D443">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E443">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F443">
         <v>3</v>
@@ -15810,13 +15810,13 @@
         <v>7</v>
       </c>
       <c r="H443">
-        <v>4.7608695652173898</v>
+        <v>4.7659574468085104</v>
       </c>
       <c r="I443">
-        <v>1.15825122219655</v>
+        <v>1.14612325684849</v>
       </c>
       <c r="J443">
-        <v>1.3415458937197999</v>
+        <v>1.3135985198889899</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.2">
@@ -16147,13 +16147,13 @@
         <v>62</v>
       </c>
       <c r="C454">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D454">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E454">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F454">
         <v>2</v>
@@ -16162,13 +16162,13 @@
         <v>9</v>
       </c>
       <c r="H454">
-        <v>5.53488372093023</v>
+        <v>5.5</v>
       </c>
       <c r="I454">
-        <v>1.80408052308545</v>
+        <v>1.79793162815911</v>
       </c>
       <c r="J454">
-        <v>3.2547065337763001</v>
+        <v>3.2325581395348801</v>
       </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.2">
@@ -16307,13 +16307,13 @@
         <v>67</v>
       </c>
       <c r="C459">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D459">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E459">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F459">
         <v>2</v>
@@ -16322,13 +16322,13 @@
         <v>9</v>
       </c>
       <c r="H459">
-        <v>5.2954545454545396</v>
+        <v>5.3255813953488298</v>
       </c>
       <c r="I459">
-        <v>1.83733307046907</v>
+        <v>1.84804826561066</v>
       </c>
       <c r="J459">
-        <v>3.3757928118393199</v>
+        <v>3.4152823920265698</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.2">
@@ -16467,13 +16467,13 @@
         <v>71</v>
       </c>
       <c r="C464">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D464">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E464">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F464">
         <v>3</v>
@@ -16482,13 +16482,13 @@
         <v>6</v>
       </c>
       <c r="H464">
-        <v>4.7173913043478199</v>
+        <v>4.7111111111111104</v>
       </c>
       <c r="I464">
-        <v>0.68841342482425505</v>
+        <v>0.69485846244273497</v>
       </c>
       <c r="J464">
-        <v>0.47391304347826102</v>
+        <v>0.482828282828282</v>
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.2">
@@ -16595,13 +16595,13 @@
         <v>75</v>
       </c>
       <c r="C468">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D468">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E468">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F468">
         <v>2</v>
@@ -16610,13 +16610,13 @@
         <v>10</v>
       </c>
       <c r="H468">
-        <v>6.3404255319148897</v>
+        <v>6.3125</v>
       </c>
       <c r="I468">
-        <v>2.3981568624102199</v>
+        <v>2.3803830372978401</v>
       </c>
       <c r="J468">
-        <v>5.7511563367252503</v>
+        <v>5.6662234042553097</v>
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.2">
@@ -16659,13 +16659,13 @@
         <v>77</v>
       </c>
       <c r="C470">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D470">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E470">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F470">
         <v>3</v>
@@ -16674,13 +16674,13 @@
         <v>11</v>
       </c>
       <c r="H470">
-        <v>5.86666666666666</v>
+        <v>5.9318181818181799</v>
       </c>
       <c r="I470">
-        <v>2.6509003616267202</v>
+        <v>2.6448521941620902</v>
       </c>
       <c r="J470">
-        <v>7.0272727272727202</v>
+        <v>6.9952431289640504</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.2">
@@ -16723,13 +16723,13 @@
         <v>79</v>
       </c>
       <c r="C472">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D472">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E472">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F472">
         <v>2</v>
@@ -16738,13 +16738,13 @@
         <v>8</v>
       </c>
       <c r="H472">
-        <v>5.3023255813953396</v>
+        <v>5.3571428571428497</v>
       </c>
       <c r="I472">
-        <v>1.77997971792792</v>
+        <v>1.7644377059331</v>
       </c>
       <c r="J472">
-        <v>3.1683277962347698</v>
+        <v>3.1132404181184601</v>
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.2">
@@ -16883,13 +16883,13 @@
         <v>83</v>
       </c>
       <c r="C477">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D477">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E477">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F477">
         <v>3</v>
@@ -16898,13 +16898,13 @@
         <v>11</v>
       </c>
       <c r="H477">
-        <v>5.9772727272727204</v>
+        <v>6</v>
       </c>
       <c r="I477">
-        <v>2.47300435271376</v>
+        <v>2.4976179127511098</v>
       </c>
       <c r="J477">
-        <v>6.1157505285412199</v>
+        <v>6.2380952380952301</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.2">
@@ -17171,13 +17171,13 @@
         <v>92</v>
       </c>
       <c r="C486">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D486">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="E486">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F486">
         <v>2</v>
@@ -17186,13 +17186,13 @@
         <v>12</v>
       </c>
       <c r="H486">
-        <v>7.4042553191489304</v>
+        <v>7.3043478260869499</v>
       </c>
       <c r="I486">
-        <v>2.92410948516314</v>
+        <v>2.8741728488762401</v>
       </c>
       <c r="J486">
-        <v>8.5504162812210893</v>
+        <v>8.2608695652173907</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.2">
@@ -17299,13 +17299,13 @@
         <v>96</v>
       </c>
       <c r="C490">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D490">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E490">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F490">
         <v>2</v>
@@ -17314,13 +17314,13 @@
         <v>10</v>
       </c>
       <c r="H490">
-        <v>5.5652173913043397</v>
+        <v>5.5777777777777704</v>
       </c>
       <c r="I490">
-        <v>1.9624494208688701</v>
+        <v>1.98275392606171</v>
       </c>
       <c r="J490">
-        <v>3.85120772946859</v>
+        <v>3.93131313131313</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.2">
@@ -17459,13 +17459,13 @@
         <v>10</v>
       </c>
       <c r="C495">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D495">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E495">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F495">
         <v>2</v>
@@ -17474,13 +17474,13 @@
         <v>6</v>
       </c>
       <c r="H495">
-        <v>4.64150943396226</v>
+        <v>4.6153846153846096</v>
       </c>
       <c r="I495">
-        <v>0.96265537452485805</v>
+        <v>0.95288717423286595</v>
       </c>
       <c r="J495">
-        <v>0.92670537010159504</v>
+        <v>0.907993966817496</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.2">
@@ -17491,13 +17491,13 @@
         <v>100</v>
       </c>
       <c r="C496">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D496">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E496">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F496">
         <v>3</v>
@@ -17506,13 +17506,13 @@
         <v>8</v>
       </c>
       <c r="H496">
-        <v>5.1346153846153797</v>
+        <v>5.1764705882352899</v>
       </c>
       <c r="I496">
-        <v>1.50852279586389</v>
+        <v>1.4927274681326199</v>
       </c>
       <c r="J496">
-        <v>2.2756410256410202</v>
+        <v>2.2282352941176402</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.2">
@@ -17587,13 +17587,13 @@
         <v>13</v>
       </c>
       <c r="C499">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D499">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E499">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F499">
         <v>3</v>
@@ -17602,13 +17602,13 @@
         <v>10</v>
       </c>
       <c r="H499">
-        <v>5.7884615384615303</v>
+        <v>5.7647058823529402</v>
       </c>
       <c r="I499">
-        <v>2.1174951763867398</v>
+        <v>2.13155563187187</v>
       </c>
       <c r="J499">
-        <v>4.48378582202111</v>
+        <v>4.5435294117647</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.2">
@@ -17651,13 +17651,13 @@
         <v>15</v>
       </c>
       <c r="C501">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D501">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E501">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F501">
         <v>2</v>
@@ -17666,13 +17666,13 @@
         <v>11</v>
       </c>
       <c r="H501">
-        <v>6.2916666666666599</v>
+        <v>6.2127659574468002</v>
       </c>
       <c r="I501">
-        <v>2.2593383830400402</v>
+        <v>2.2159125140944198</v>
       </c>
       <c r="J501">
-        <v>5.10460992907801</v>
+        <v>4.91026827012025</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.2">
@@ -17875,13 +17875,13 @@
         <v>21</v>
       </c>
       <c r="C508">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D508">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E508">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F508">
         <v>2</v>
@@ -17890,13 +17890,13 @@
         <v>9</v>
       </c>
       <c r="H508">
-        <v>5.3454545454545404</v>
+        <v>5.3148148148148104</v>
       </c>
       <c r="I508">
-        <v>1.9072782800919299</v>
+        <v>1.9114755149634199</v>
       </c>
       <c r="J508">
-        <v>3.6377104377104299</v>
+        <v>3.65373864430468</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.2">
@@ -18195,13 +18195,13 @@
         <v>30</v>
       </c>
       <c r="C518">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D518">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E518">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F518">
         <v>3</v>
@@ -18210,13 +18210,13 @@
         <v>8</v>
       </c>
       <c r="H518">
-        <v>5.125</v>
+        <v>5.1090909090908996</v>
       </c>
       <c r="I518">
-        <v>1.4530532118142201</v>
+        <v>1.4615152876473501</v>
       </c>
       <c r="J518">
-        <v>2.1113636363636301</v>
+        <v>2.1360269360269299</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.2">
@@ -18323,13 +18323,13 @@
         <v>34</v>
       </c>
       <c r="C522">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D522">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E522">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F522">
         <v>2</v>
@@ -18338,13 +18338,13 @@
         <v>9</v>
       </c>
       <c r="H522">
-        <v>5.86</v>
+        <v>5.87755102040816</v>
       </c>
       <c r="I522">
-        <v>1.7380495753949601</v>
+        <v>1.75157849121424</v>
       </c>
       <c r="J522">
-        <v>3.0208163265306101</v>
+        <v>3.0680272108843498</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.2">
@@ -18899,13 +18899,13 @@
         <v>50</v>
       </c>
       <c r="C540">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D540">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E540">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F540">
         <v>2</v>
@@ -18914,13 +18914,13 @@
         <v>11</v>
       </c>
       <c r="H540">
-        <v>6.52830188679245</v>
+        <v>6.4423076923076898</v>
       </c>
       <c r="I540">
-        <v>2.5389562784803501</v>
+        <v>2.4845677537706399</v>
       </c>
       <c r="J540">
-        <v>6.4462989840348301</v>
+        <v>6.1730769230769198</v>
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.2">
@@ -19219,13 +19219,13 @@
         <v>6</v>
       </c>
       <c r="C550">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D550">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E550">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F550">
         <v>3</v>
@@ -19234,13 +19234,13 @@
         <v>10</v>
       </c>
       <c r="H550">
-        <v>5.7659574468085104</v>
+        <v>5.7608695652173898</v>
       </c>
       <c r="I550">
-        <v>2.0239088950694302</v>
+        <v>2.0459692906210099</v>
       </c>
       <c r="J550">
-        <v>4.0962072155411597</v>
+        <v>4.1859903381642498</v>
       </c>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.2">
@@ -19315,13 +19315,13 @@
         <v>62</v>
       </c>
       <c r="C553">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D553">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E553">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F553">
         <v>3</v>
@@ -19330,13 +19330,13 @@
         <v>11</v>
       </c>
       <c r="H553">
-        <v>5.5098039215686203</v>
+        <v>5.56</v>
       </c>
       <c r="I553">
-        <v>2.5169231138007202</v>
+        <v>2.5165574152976902</v>
       </c>
       <c r="J553">
-        <v>6.3349019607843102</v>
+        <v>6.3330612244897901</v>
       </c>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.2">
@@ -19667,13 +19667,13 @@
         <v>72</v>
       </c>
       <c r="C564">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D564">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E564">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F564">
         <v>3</v>
@@ -19682,13 +19682,13 @@
         <v>8</v>
       </c>
       <c r="H564">
-        <v>5.0377358490565998</v>
+        <v>5.0384615384615303</v>
       </c>
       <c r="I564">
-        <v>1.58067979717276</v>
+        <v>1.59609251367744</v>
       </c>
       <c r="J564">
-        <v>2.49854862119013</v>
+        <v>2.54751131221719</v>
       </c>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.2">
@@ -19699,13 +19699,13 @@
         <v>73</v>
       </c>
       <c r="C565">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D565">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E565">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F565">
         <v>2</v>
@@ -19714,13 +19714,13 @@
         <v>9</v>
       </c>
       <c r="H565">
-        <v>5.9019607843137196</v>
+        <v>5.86</v>
       </c>
       <c r="I565">
-        <v>2.11900827710308</v>
+        <v>2.1190101655331</v>
       </c>
       <c r="J565">
-        <v>4.4901960784313699</v>
+        <v>4.4902040816326503</v>
       </c>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.2">
@@ -19763,13 +19763,13 @@
         <v>75</v>
       </c>
       <c r="C567">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D567">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E567">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F567">
         <v>3</v>
@@ -19778,13 +19778,13 @@
         <v>9</v>
       </c>
       <c r="H567">
-        <v>5.8846153846153797</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="I567">
-        <v>2.0355068372433802</v>
+        <v>2.0556951021348402</v>
       </c>
       <c r="J567">
-        <v>4.1432880844645501</v>
+        <v>4.22588235294117</v>
       </c>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.2">
@@ -19795,13 +19795,13 @@
         <v>76</v>
       </c>
       <c r="C568">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D568">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E568">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F568">
         <v>2</v>
@@ -19810,13 +19810,13 @@
         <v>9</v>
       </c>
       <c r="H568">
-        <v>5.8888888888888804</v>
+        <v>5.8867924528301803</v>
       </c>
       <c r="I568">
-        <v>1.9295777880799601</v>
+        <v>1.9479809799901699</v>
       </c>
       <c r="J568">
-        <v>3.7232704402515702</v>
+        <v>3.7946298984034801</v>
       </c>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.2">
@@ -19827,13 +19827,13 @@
         <v>77</v>
       </c>
       <c r="C569">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D569">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E569">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F569">
         <v>2</v>
@@ -19842,13 +19842,13 @@
         <v>11</v>
       </c>
       <c r="H569">
-        <v>6.4313725490196001</v>
+        <v>6.5</v>
       </c>
       <c r="I569">
-        <v>2.5787974093424499</v>
+        <v>2.55750196999545</v>
       </c>
       <c r="J569">
-        <v>6.6501960784313701</v>
+        <v>6.5408163265306101</v>
       </c>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.2">
@@ -19987,13 +19987,13 @@
         <v>82</v>
       </c>
       <c r="C574">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D574">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E574">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F574">
         <v>3</v>
@@ -20002,13 +20002,13 @@
         <v>6</v>
       </c>
       <c r="H574">
-        <v>4.4716981132075402</v>
+        <v>4.4615384615384599</v>
       </c>
       <c r="I574">
-        <v>0.86832671945940998</v>
+        <v>0.87361180551031803</v>
       </c>
       <c r="J574">
-        <v>0.75399129172714097</v>
+        <v>0.763197586726998</v>
       </c>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.2">
@@ -20083,13 +20083,13 @@
         <v>86</v>
       </c>
       <c r="C577">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D577">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E577">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F577">
         <v>3</v>
@@ -20098,13 +20098,13 @@
         <v>6</v>
       </c>
       <c r="H577">
-        <v>4.4905660377358396</v>
+        <v>4.4807692307692299</v>
       </c>
       <c r="I577">
-        <v>1.0119030340713699</v>
+        <v>1.0192343265255599</v>
       </c>
       <c r="J577">
-        <v>1.02394775036284</v>
+        <v>1.03883861236802</v>
       </c>
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.2">
@@ -20307,13 +20307,13 @@
         <v>93</v>
       </c>
       <c r="C584">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D584">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E584">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F584">
         <v>2</v>
@@ -20322,13 +20322,13 @@
         <v>8</v>
       </c>
       <c r="H584">
-        <v>5.3703703703703702</v>
+        <v>5.3584905660377302</v>
       </c>
       <c r="I584">
-        <v>1.6744055131603399</v>
+        <v>1.6881298211863001</v>
       </c>
       <c r="J584">
-        <v>2.8036338225017401</v>
+        <v>2.8497822931785102</v>
       </c>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.2">
@@ -20787,13 +20787,13 @@
         <v>11</v>
       </c>
       <c r="C599">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D599">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E599">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F599">
         <v>3</v>
@@ -20802,7 +20802,7 @@
         <v>4</v>
       </c>
       <c r="H599">
-        <v>3.5</v>
+        <v>3.4285714285714199</v>
       </c>
       <c r="I599">
         <v>0.53452248382484802</v>
@@ -20819,13 +20819,13 @@
         <v>12</v>
       </c>
       <c r="C600">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D600">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E600">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F600">
         <v>2</v>
@@ -20834,13 +20834,13 @@
         <v>4</v>
       </c>
       <c r="H600">
-        <v>3.3333333333333299</v>
+        <v>3.2</v>
       </c>
       <c r="I600">
-        <v>0.81649658092772603</v>
+        <v>0.83666002653407501</v>
       </c>
       <c r="J600">
-        <v>0.66666666666666596</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.2">
@@ -20947,13 +20947,13 @@
         <v>16</v>
       </c>
       <c r="C604">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D604">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E604">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F604">
         <v>2</v>
@@ -20962,13 +20962,13 @@
         <v>4</v>
       </c>
       <c r="H604">
-        <v>3.4444444444444402</v>
+        <v>3.375</v>
       </c>
       <c r="I604">
-        <v>0.88191710368819598</v>
+        <v>0.916125381312904</v>
       </c>
       <c r="J604">
-        <v>0.77777777777777701</v>
+        <v>0.83928571428571397</v>
       </c>
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.2">
@@ -20979,13 +20979,13 @@
         <v>17</v>
       </c>
       <c r="C605">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D605">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E605">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F605">
         <v>2</v>
@@ -20994,13 +20994,13 @@
         <v>4</v>
       </c>
       <c r="H605">
-        <v>3.2222222222222201</v>
+        <v>3.125</v>
       </c>
       <c r="I605">
-        <v>0.66666666666666596</v>
+        <v>0.64086994446165502</v>
       </c>
       <c r="J605">
-        <v>0.44444444444444398</v>
+        <v>0.41071428571428498</v>
       </c>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.2">
@@ -21107,13 +21107,13 @@
         <v>20</v>
       </c>
       <c r="C609">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D609">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E609">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F609">
         <v>3</v>
@@ -21122,13 +21122,13 @@
         <v>4</v>
       </c>
       <c r="H609">
-        <v>3.4444444444444402</v>
+        <v>3.375</v>
       </c>
       <c r="I609">
-        <v>0.52704627669472903</v>
+        <v>0.51754916950676499</v>
       </c>
       <c r="J609">
-        <v>0.27777777777777701</v>
+        <v>0.26785714285714202</v>
       </c>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.2">
@@ -21299,13 +21299,13 @@
         <v>26</v>
       </c>
       <c r="C615">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D615">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E615">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F615">
         <v>2</v>
@@ -21314,13 +21314,13 @@
         <v>4</v>
       </c>
       <c r="H615">
-        <v>3.1111111111111098</v>
+        <v>3.125</v>
       </c>
       <c r="I615">
-        <v>0.600925212577331</v>
+        <v>0.64086994446165502</v>
       </c>
       <c r="J615">
-        <v>0.36111111111111099</v>
+        <v>0.41071428571428498</v>
       </c>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.2">
@@ -21875,13 +21875,13 @@
         <v>44</v>
       </c>
       <c r="C633">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D633">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E633">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F633">
         <v>2</v>
@@ -21890,13 +21890,13 @@
         <v>4</v>
       </c>
       <c r="H633">
-        <v>3.3333333333333299</v>
+        <v>3.25</v>
       </c>
       <c r="I633">
         <v>0.70710678118654702</v>
       </c>
       <c r="J633">
-        <v>0.499999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.2">
@@ -22067,13 +22067,13 @@
         <v>50</v>
       </c>
       <c r="C639">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D639">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E639">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F639">
         <v>2</v>
@@ -22082,13 +22082,13 @@
         <v>5</v>
       </c>
       <c r="H639">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I639">
-        <v>1.28173988892331</v>
+        <v>1.1547005383792499</v>
       </c>
       <c r="J639">
-        <v>1.6428571428571399</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.2">
@@ -22483,13 +22483,13 @@
         <v>63</v>
       </c>
       <c r="C652">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D652">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E652">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F652">
         <v>2</v>
@@ -22498,13 +22498,13 @@
         <v>4</v>
       </c>
       <c r="H652">
-        <v>3.71428571428571</v>
+        <v>3.6666666666666599</v>
       </c>
       <c r="I652">
-        <v>0.75592894601845395</v>
+        <v>0.81649658092772603</v>
       </c>
       <c r="J652">
-        <v>0.57142857142857095</v>
+        <v>0.66666666666666596</v>
       </c>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.2">
@@ -22707,13 +22707,13 @@
         <v>70</v>
       </c>
       <c r="C659">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D659">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E659">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F659">
         <v>2</v>
@@ -22722,13 +22722,13 @@
         <v>4</v>
       </c>
       <c r="H659">
-        <v>3.1111111111111098</v>
+        <v>3</v>
       </c>
       <c r="I659">
-        <v>0.78173595997057099</v>
+        <v>0.75592894601845395</v>
       </c>
       <c r="J659">
-        <v>0.61111111111111105</v>
+        <v>0.57142857142857095</v>
       </c>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.2">
@@ -22771,13 +22771,13 @@
         <v>72</v>
       </c>
       <c r="C661">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D661">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E661">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F661">
         <v>2</v>
@@ -22786,13 +22786,13 @@
         <v>4</v>
       </c>
       <c r="H661">
-        <v>3.4545454545454501</v>
+        <v>3.6</v>
       </c>
       <c r="I661">
-        <v>0.82019953226472397</v>
+        <v>0.69920589878010098</v>
       </c>
       <c r="J661">
-        <v>0.67272727272727195</v>
+        <v>0.48888888888888898</v>
       </c>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.2">
@@ -22803,13 +22803,13 @@
         <v>73</v>
       </c>
       <c r="C662">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D662">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E662">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F662">
         <v>2</v>
@@ -22818,13 +22818,13 @@
         <v>4</v>
       </c>
       <c r="H662">
-        <v>3.25</v>
+        <v>3.2857142857142798</v>
       </c>
       <c r="I662">
-        <v>0.70710678118654702</v>
+        <v>0.75592894601845395</v>
       </c>
       <c r="J662">
-        <v>0.5</v>
+        <v>0.57142857142857095</v>
       </c>
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.2">
@@ -22963,13 +22963,13 @@
         <v>78</v>
       </c>
       <c r="C667">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D667">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E667">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F667">
         <v>3</v>
@@ -22978,13 +22978,13 @@
         <v>4</v>
       </c>
       <c r="H667">
-        <v>3.375</v>
+        <v>3.4285714285714199</v>
       </c>
       <c r="I667">
-        <v>0.51754916950676499</v>
+        <v>0.53452248382484802</v>
       </c>
       <c r="J667">
-        <v>0.26785714285714202</v>
+        <v>0.28571428571428498</v>
       </c>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.2">
@@ -23123,13 +23123,13 @@
         <v>83</v>
       </c>
       <c r="C672">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D672">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E672">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F672">
         <v>2</v>
@@ -23141,10 +23141,10 @@
         <v>4</v>
       </c>
       <c r="I672">
-        <v>1.11803398874989</v>
+        <v>1.19522860933439</v>
       </c>
       <c r="J672">
-        <v>1.25</v>
+        <v>1.4285714285714199</v>
       </c>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.2">
@@ -23219,13 +23219,13 @@
         <v>86</v>
       </c>
       <c r="C675">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D675">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E675">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F675">
         <v>2</v>
@@ -23234,13 +23234,13 @@
         <v>5</v>
       </c>
       <c r="H675">
-        <v>3.88888888888888</v>
+        <v>3.875</v>
       </c>
       <c r="I675">
-        <v>1.26929551764398</v>
+        <v>1.3562026818605299</v>
       </c>
       <c r="J675">
-        <v>1.6111111111111101</v>
+        <v>1.83928571428571</v>
       </c>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.2">
@@ -23539,13 +23539,13 @@
         <v>95</v>
       </c>
       <c r="C685">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D685">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E685">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F685">
         <v>2</v>
@@ -23554,13 +23554,13 @@
         <v>4</v>
       </c>
       <c r="H685">
-        <v>3.3333333333333299</v>
+        <v>3.5</v>
       </c>
       <c r="I685">
-        <v>0.86602540378443804</v>
+        <v>0.75592894601845395</v>
       </c>
       <c r="J685">
-        <v>0.75</v>
+        <v>0.57142857142857095</v>
       </c>
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.2">
@@ -23635,13 +23635,13 @@
         <v>98</v>
       </c>
       <c r="C688">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D688">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E688">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F688">
         <v>2</v>
@@ -23650,13 +23650,13 @@
         <v>4</v>
       </c>
       <c r="H688">
-        <v>3.125</v>
+        <v>3.1428571428571401</v>
       </c>
       <c r="I688">
-        <v>0.64086994446165502</v>
+        <v>0.69006555934235403</v>
       </c>
       <c r="J688">
-        <v>0.41071428571428498</v>
+        <v>0.476190476190476</v>
       </c>
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.2">
@@ -23667,13 +23667,13 @@
         <v>99</v>
       </c>
       <c r="C689">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D689">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E689">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F689">
         <v>2</v>
@@ -23682,13 +23682,13 @@
         <v>4</v>
       </c>
       <c r="H689">
-        <v>3.1666666666666599</v>
+        <v>3.2</v>
       </c>
       <c r="I689">
-        <v>0.752772652709081</v>
+        <v>0.83666002653407501</v>
       </c>
       <c r="J689">
-        <v>0.56666666666666599</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.2">
@@ -24947,13 +24947,13 @@
         <v>44</v>
       </c>
       <c r="C729">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D729">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E729">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F729">
         <v>3</v>
@@ -24962,13 +24962,13 @@
         <v>4</v>
       </c>
       <c r="H729">
-        <v>3.7692307692307598</v>
+        <v>3.8333333333333299</v>
       </c>
       <c r="I729">
-        <v>0.43852900965351399</v>
+        <v>0.38924947208076099</v>
       </c>
       <c r="J729">
-        <v>0.19230769230769201</v>
+        <v>0.15151515151515099</v>
       </c>
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.2">
@@ -24979,13 +24979,13 @@
         <v>45</v>
       </c>
       <c r="C730">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D730">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E730">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F730">
         <v>2</v>
@@ -24994,13 +24994,13 @@
         <v>6</v>
       </c>
       <c r="H730">
-        <v>4.21428571428571</v>
+        <v>4.1538461538461497</v>
       </c>
       <c r="I730">
-        <v>1.3114039117603</v>
+        <v>1.3445044840729601</v>
       </c>
       <c r="J730">
-        <v>1.7197802197802201</v>
+        <v>1.8076923076922999</v>
       </c>
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.2">
@@ -25491,13 +25491,13 @@
         <v>6</v>
       </c>
       <c r="C746">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D746">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E746">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F746">
         <v>3</v>
@@ -25506,13 +25506,13 @@
         <v>4</v>
       </c>
       <c r="H746">
-        <v>3.6923076923076898</v>
+        <v>3.75</v>
       </c>
       <c r="I746">
-        <v>0.48038446141526098</v>
+        <v>0.452267016866645</v>
       </c>
       <c r="J746">
-        <v>0.23076923076923</v>
+        <v>0.204545454545454</v>
       </c>
     </row>
     <row r="747" spans="1:10" x14ac:dyDescent="0.2">
@@ -25683,13 +25683,13 @@
         <v>65</v>
       </c>
       <c r="C752">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D752">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E752">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F752">
         <v>2</v>
@@ -25698,13 +25698,13 @@
         <v>5</v>
       </c>
       <c r="H752">
-        <v>3.8571428571428501</v>
+        <v>3.7692307692307598</v>
       </c>
       <c r="I752">
-        <v>0.94926229309864596</v>
+        <v>0.926808695996298</v>
       </c>
       <c r="J752">
-        <v>0.90109890109890101</v>
+        <v>0.85897435897435903</v>
       </c>
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.2">
@@ -25875,13 +25875,13 @@
         <v>71</v>
       </c>
       <c r="C758">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D758">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E758">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F758">
         <v>3</v>
@@ -25890,13 +25890,13 @@
         <v>5</v>
       </c>
       <c r="H758">
-        <v>4</v>
+        <v>4.0833333333333304</v>
       </c>
       <c r="I758">
-        <v>0.70710678118654702</v>
+        <v>0.66855792342152098</v>
       </c>
       <c r="J758">
-        <v>0.5</v>
+        <v>0.44696969696969602</v>
       </c>
     </row>
     <row r="759" spans="1:10" x14ac:dyDescent="0.2">
@@ -26227,13 +26227,13 @@
         <v>81</v>
       </c>
       <c r="C769">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D769">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E769">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F769">
         <v>3</v>
@@ -26242,13 +26242,13 @@
         <v>5</v>
       </c>
       <c r="H769">
-        <v>3.8571428571428501</v>
+        <v>3.9230769230769198</v>
       </c>
       <c r="I769">
-        <v>0.77032888651964304</v>
+        <v>0.75955452531275003</v>
       </c>
       <c r="J769">
-        <v>0.59340659340659296</v>
+        <v>0.57692307692307698</v>
       </c>
     </row>
     <row r="770" spans="1:10" x14ac:dyDescent="0.2">
@@ -26291,13 +26291,13 @@
         <v>83</v>
       </c>
       <c r="C771">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D771">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E771">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F771">
         <v>2</v>
@@ -26306,13 +26306,13 @@
         <v>6</v>
       </c>
       <c r="H771">
-        <v>3.84615384615384</v>
+        <v>3.6666666666666599</v>
       </c>
       <c r="I771">
-        <v>1.2810252304406899</v>
+        <v>1.1547005383792499</v>
       </c>
       <c r="J771">
-        <v>1.6410256410256401</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.2">
@@ -27635,13 +27635,13 @@
         <v>32</v>
       </c>
       <c r="C813">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D813">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E813">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F813">
         <v>3</v>
@@ -27650,13 +27650,13 @@
         <v>4</v>
       </c>
       <c r="H813">
-        <v>3.5714285714285698</v>
+        <v>3.6</v>
       </c>
       <c r="I813">
-        <v>0.50709255283710997</v>
+        <v>0.50262468995003395</v>
       </c>
       <c r="J813">
-        <v>0.25714285714285701</v>
+        <v>0.25263157894736799</v>
       </c>
     </row>
     <row r="814" spans="1:10" x14ac:dyDescent="0.2">
@@ -28083,13 +28083,13 @@
         <v>45</v>
       </c>
       <c r="C827">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D827">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E827">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F827">
         <v>2</v>
@@ -28098,13 +28098,13 @@
         <v>6</v>
       </c>
       <c r="H827">
-        <v>4.0909090909090899</v>
+        <v>4.1428571428571397</v>
       </c>
       <c r="I827">
-        <v>1.2309149097933201</v>
+        <v>1.2363540870525001</v>
       </c>
       <c r="J827">
-        <v>1.51515151515151</v>
+        <v>1.52857142857142</v>
       </c>
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.2">
@@ -28691,13 +28691,13 @@
         <v>63</v>
       </c>
       <c r="C846">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D846">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E846">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F846">
         <v>2</v>
@@ -28706,13 +28706,13 @@
         <v>6</v>
       </c>
       <c r="H846">
-        <v>4.7777777777777697</v>
+        <v>4.8235294117647003</v>
       </c>
       <c r="I846">
-        <v>0.94280904158206302</v>
+        <v>0.95100565966027795</v>
       </c>
       <c r="J846">
-        <v>0.88888888888888895</v>
+        <v>0.90441176470588103</v>
       </c>
     </row>
     <row r="847" spans="1:10" x14ac:dyDescent="0.2">
@@ -28883,13 +28883,13 @@
         <v>69</v>
       </c>
       <c r="C852">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D852">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E852">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F852">
         <v>2</v>
@@ -28898,13 +28898,13 @@
         <v>5</v>
       </c>
       <c r="H852">
-        <v>3.71428571428571</v>
+        <v>3.7</v>
       </c>
       <c r="I852">
-        <v>0.78376381281972496</v>
+        <v>0.80131470918603098</v>
       </c>
       <c r="J852">
-        <v>0.61428571428571399</v>
+        <v>0.64210526315789396</v>
       </c>
     </row>
     <row r="853" spans="1:10" x14ac:dyDescent="0.2">
